--- a/biology/Botanique/Élaïosome/Élaïosome.xlsx
+++ b/biology/Botanique/Élaïosome/Élaïosome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89la%C3%AFosome</t>
+          <t>Élaïosome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un élaïosome (du grec ἔλαιον élaion- huile d’olive/huile et σόμα sóma- corps), également appelé « éléosome », est une excroissance charnue attachée aux graines de certaines espèces de plantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89la%C3%AFosome</t>
+          <t>Élaïosome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les élaïosomes sont riches en lipides et en protéines, et peuvent être de formes variées.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89la%C3%AFosome</t>
+          <t>Élaïosome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses plantes ont des élaïosomes pour attirer les fourmis, qui transportent les graines dans leur fourmilière pour nourrir leurs larves avec l'élaïosome.
 Après que les larves ont consommé l'élaïosome, les fourmis stockent les graines dans la zone d'élimination des déchets de la fourmilière, qui est riche en éléments nutritifs grâce aux excréments et aux cadavres de fourmis, ainsi que déchets alimentaires qu'il ne faut pas laisser s'accumuler dans la fourmilière. Cet emplacement constitue un lieu idéal pour la germination des graines.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89la%C3%AFosome</t>
+          <t>Élaïosome</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Exemples de plantes avec des graines à élaïosome</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea, de nombreuses espèces de centaurées
 Chelidonium majus, la chélidoine
@@ -587,7 +605,7 @@
 Sanguinaria canadensis, la sanguinaire du Canada
 Trillium, les trilles
 Viola, les violettes et les pensées
-Helléborus[1]
+Helléborus
 ...
 Les élaïosomes de la famille des Euphorbiacées sont appelés caroncules (du latin caruncula : verrue).
 </t>
